--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16035" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="5" r:id="rId1"/>
     <sheet name="Arquitectura" sheetId="6" r:id="rId2"/>
-    <sheet name="Diagrama Flujo Activ Principal" sheetId="1" r:id="rId3"/>
-    <sheet name="Botones Activ Principal" sheetId="2" r:id="rId4"/>
-    <sheet name="Diagrama Flujo Activ Config" sheetId="3" r:id="rId5"/>
-    <sheet name="Botones Activ Config" sheetId="4" r:id="rId6"/>
+    <sheet name="Botones Activ Principal" sheetId="2" r:id="rId3"/>
+    <sheet name="Diagrama Flujo Activ Principal" sheetId="1" r:id="rId4"/>
+    <sheet name="Botones Activ Analizar" sheetId="4" r:id="rId5"/>
+    <sheet name="Diagrama Flujo Activ Analizar" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3387,15 +3387,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3404,11 +3404,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733550" y="190501"/>
-          <a:ext cx="2028825" cy="4838700"/>
+          <a:off x="361950" y="209550"/>
+          <a:ext cx="2320925" cy="4529138"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6835"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -3439,15 +3441,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3456,7 +3458,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847850" y="5219700"/>
+          <a:off x="714375" y="4810124"/>
           <a:ext cx="1685925" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3503,44 +3505,240 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>261939</xdr:colOff>
+      <xdr:colOff>277813</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Grupo 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="500063" y="1579562"/>
+          <a:ext cx="2063750" cy="3048001"/>
+          <a:chOff x="7802563" y="214312"/>
+          <a:chExt cx="2063750" cy="3048001"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rectángulo 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7802563" y="214312"/>
+            <a:ext cx="2063750" cy="3048001"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1100"/>
+              <a:t>Fragmento</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectángulo redondeado 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7969251" y="2770188"/>
+            <a:ext cx="1722438" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1100"/>
+              <a:t>ANALIZAR</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectángulo redondeado 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8032750" y="523876"/>
+            <a:ext cx="1746249" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1100"/>
+              <a:t>SELECCIONAR IMAGEN</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectángulo 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8135938" y="920750"/>
+            <a:ext cx="1436687" cy="1730375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1100"/>
+              <a:t>IMAGEN SELECCIONADA</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+        <xdr:cNvPr id="20" name="Rectángulo redondeado 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2547939" y="252413"/>
-          <a:ext cx="1135061" cy="428625"/>
+          <a:off x="690562" y="309564"/>
+          <a:ext cx="1722438" cy="238126"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3549,15 +3747,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Activity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On Create)</a:t>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>BARRA DE MENUS</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3566,156 +3757,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>261939</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+        <xdr:cNvPr id="24" name="Rectángulo redondeado 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2547939" y="952500"/>
-          <a:ext cx="1135061" cy="428625"/>
+          <a:off x="1317625" y="611187"/>
+          <a:ext cx="444500" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Activity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On Start)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67470</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67470</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector recto de flecha 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3115470" y="681038"/>
-          <a:ext cx="0" cy="271462"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>192089</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>704851</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo redondeado 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4002089" y="252413"/>
-          <a:ext cx="1274762" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3725,14 +3805,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Inicializa Base de datos</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(base de datos)</a:t>
+            <a:t>HOME</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3741,26 +3814,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>201614</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectángulo redondeado 13"/>
+        <xdr:cNvPr id="25" name="Rectángulo redondeado 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4011614" y="952500"/>
-          <a:ext cx="1274762" cy="428624"/>
+          <a:off x="1793875" y="611188"/>
+          <a:ext cx="500063" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3768,16 +3841,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3787,14 +3862,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Lee tipo de cambio</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(web service)</a:t>
+            <a:t>TOMAR FOTO</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3803,26 +3871,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>458788</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>96838</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144462</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63498</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectángulo redondeado 16"/>
+        <xdr:cNvPr id="27" name="Rectángulo redondeado 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7316788" y="2763838"/>
-          <a:ext cx="1557337" cy="428624"/>
+          <a:off x="2349498" y="1095375"/>
+          <a:ext cx="960440" cy="174625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3830,16 +3898,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3849,7 +3919,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Borra elementos</a:t>
+            <a:t>LOGIN</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3858,26 +3928,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>179388</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49212</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71435</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>269874</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectángulo redondeado 17"/>
+        <xdr:cNvPr id="28" name="Rectángulo redondeado 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5359401" y="1525588"/>
-          <a:ext cx="1677987" cy="428624"/>
+          <a:off x="2357435" y="1301749"/>
+          <a:ext cx="960439" cy="198439"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3885,16 +3955,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3904,14 +3976,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Actualiza tipos de cambio (todos)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(base de datos)</a:t>
+            <a:t>ULTIMAS FOTOS</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3920,26 +3985,83 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>179388</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectángulo redondeado 18"/>
+        <xdr:cNvPr id="30" name="Rectángulo 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5359401" y="2135188"/>
-          <a:ext cx="1677987" cy="428624"/>
+          <a:off x="476251" y="603250"/>
+          <a:ext cx="666750" cy="222249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>TITULO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectángulo redondeado 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="619125"/>
+          <a:ext cx="309563" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3947,16 +4069,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3966,715 +4090,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Lee tipos de cambio (visualizar)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(base de datos)</a:t>
+            <a:t>...</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>179388</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>153987</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectángulo redondeado 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5359401" y="2773363"/>
-          <a:ext cx="1677987" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Actualiza</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900" baseline="0"/>
-            <a:t> Spinner</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>458788</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153987</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectángulo redondeado 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7316788" y="3344863"/>
-          <a:ext cx="1557337" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Adiciona indicadores fijos</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(temperatura, peso,...)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>458788</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>173038</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30162</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectángulo redondeado 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7316788" y="3983038"/>
-          <a:ext cx="1557337" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Adiciona indicadores variables</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(tipos de cambio (visualizar) )</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>192089</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Conector recto de flecha 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3683000" y="466725"/>
-          <a:ext cx="319089" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>201614</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Conector recto de flecha 25"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="14" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3683000" y="1166812"/>
-          <a:ext cx="328614" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102395</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102395</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1588</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Conector recto de flecha 28"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="148" idx="2"/>
-          <a:endCxn id="18" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6198395" y="1381125"/>
-          <a:ext cx="0" cy="144463"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102395</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102395</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Conector recto de flecha 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="2"/>
-          <a:endCxn id="19" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6198395" y="1954212"/>
-          <a:ext cx="0" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102395</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102395</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106363</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Conector recto de flecha 33"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="2"/>
-          <a:endCxn id="20" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6198395" y="2563812"/>
-          <a:ext cx="0" cy="209551"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>179388</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>458788</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Conector recto de flecha 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="3"/>
-          <a:endCxn id="17" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7037388" y="2978150"/>
-          <a:ext cx="279400" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>475457</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>475457</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106363</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="Conector recto de flecha 83"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="2"/>
-          <a:endCxn id="21" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8095457" y="3192462"/>
-          <a:ext cx="0" cy="152401"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>475457</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>475457</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>173038</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Conector recto de flecha 86"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="2"/>
-          <a:endCxn id="22" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8095457" y="3773487"/>
-          <a:ext cx="0" cy="209551"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>265113</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701676</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="Rectángulo redondeado 147"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5599113" y="952500"/>
-          <a:ext cx="1198563" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Librería WebService</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On Response)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>265113</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="Conector recto de flecha 149"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="3"/>
-          <a:endCxn id="148" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5286376" y="1166812"/>
-          <a:ext cx="312737" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4684,16 +4104,77 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182562</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectángulo 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468562" y="190500"/>
+          <a:ext cx="4389437" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Actividad Principal (tomar foto)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>436563</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4702,13 +4183,11 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="209550"/>
-          <a:ext cx="2360613" cy="4838700"/>
+          <a:off x="177800" y="150813"/>
+          <a:ext cx="2028825" cy="8088311"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 11623"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -4739,15 +4218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4756,7 +4235,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="5238749"/>
+          <a:off x="228600" y="8394700"/>
           <a:ext cx="1685925" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4803,168 +4282,867 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182562</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>169863</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>690563</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
     </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Grupo 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2547939" y="595313"/>
+          <a:ext cx="4238624" cy="3254374"/>
+          <a:chOff x="2547939" y="214313"/>
+          <a:chExt cx="4238624" cy="3254374"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2547939" y="252413"/>
+            <a:ext cx="1135061" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>Activity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>(On Create)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2547939" y="1008063"/>
+            <a:ext cx="1135061" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>Menu</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>(On item selected)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="Conector recto de flecha 7"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="2"/>
+            <a:endCxn id="5" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3115470" y="681038"/>
+            <a:ext cx="0" cy="327025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectángulo redondeado 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3835400" y="214313"/>
+            <a:ext cx="1622669" cy="500062"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>Verifica permisos de cámara y lectura/escritura de archivos</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectángulo redondeado 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3844925" y="944558"/>
+            <a:ext cx="1630792" cy="555625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>Si es </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900" b="1"/>
+              <a:t>tomar foto</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>(crea intent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900" baseline="0"/>
+              <a:t> tomar foto, con archivo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectángulo redondeado 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5588000" y="1620837"/>
+            <a:ext cx="1198563" cy="585788"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>Si recibio imagen ==&gt;  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>lee archivo intent</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>devuelve ruta imagen</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Rectángulo redondeado 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3914776" y="1708150"/>
+            <a:ext cx="1490661" cy="428624"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>obtiene imagen de camara</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>(almacena ruta imagen)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Rectángulo redondeado 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3914776" y="2262187"/>
+            <a:ext cx="1490661" cy="246063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>convierte ruta a imagen</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rectángulo redondeado 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3914775" y="3186112"/>
+            <a:ext cx="1490661" cy="282575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>muestra imagen</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Conector recto de flecha 22"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="3"/>
+            <a:endCxn id="13" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3683000" y="464344"/>
+            <a:ext cx="152400" cy="2382"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="Conector recto de flecha 25"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="3"/>
+            <a:endCxn id="14" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3683000" y="1222371"/>
+            <a:ext cx="161925" cy="5"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="Conector recto de flecha 28"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="148" idx="3"/>
+            <a:endCxn id="18" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3765551" y="1920876"/>
+            <a:ext cx="149225" cy="1586"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Conector recto de flecha 32"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="18" idx="2"/>
+            <a:endCxn id="19" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4660107" y="2136774"/>
+            <a:ext cx="0" cy="125413"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="Conector recto de flecha 33"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="85" idx="2"/>
+            <a:endCxn id="20" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4660106" y="3048001"/>
+            <a:ext cx="0" cy="138111"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="Conector recto de flecha 47"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="18" idx="3"/>
+            <a:endCxn id="17" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5405437" y="1913731"/>
+            <a:ext cx="182563" cy="8731"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="Rectángulo redondeado 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2566988" y="1706563"/>
+            <a:ext cx="1198563" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>Activity</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>(On Activity Result)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="150" name="Conector recto de flecha 149"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="14" idx="2"/>
+            <a:endCxn id="148" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3166270" y="1500183"/>
+            <a:ext cx="1494051" cy="206380"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="Rectángulo redondeado 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3914775" y="2643188"/>
+            <a:ext cx="1490661" cy="404813"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>escala imagen para visualizacion</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="87" name="Conector recto de flecha 86"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="19" idx="2"/>
+            <a:endCxn id="85" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4660106" y="2508250"/>
+            <a:ext cx="1" cy="134938"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+        <xdr:cNvPr id="76" name="Rectángulo 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3270251" y="3421062"/>
-          <a:ext cx="1471612" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="2452686" y="4222750"/>
+          <a:ext cx="4437063" cy="3556000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Botón Convertir</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On click)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>169863</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>353218</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector recto de flecha 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4741863" y="3635374"/>
-          <a:ext cx="183355" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>658813</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectángulo redondeado 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="658813" y="2968625"/>
-          <a:ext cx="1722438" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ANALIZAR</a:t>
+            <a:t>Fragmento (seleccionar foto)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4973,599 +5151,863 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>746125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="Grupo 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2667001" y="4548188"/>
+          <a:ext cx="4175124" cy="3111500"/>
+          <a:chOff x="2547939" y="71438"/>
+          <a:chExt cx="4175124" cy="3111500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="Rectángulo redondeado 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2555876" y="109538"/>
+            <a:ext cx="1135061" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>Fragmento</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>(On Create)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="Rectángulo redondeado 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2547939" y="730250"/>
+            <a:ext cx="1135061" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>Boton</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>(On click)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="81" name="Conector recto de flecha 80"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="79" idx="2"/>
+            <a:endCxn id="80" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3115470" y="538163"/>
+            <a:ext cx="7937" cy="192087"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="Rectángulo redondeado 81"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3851276" y="71438"/>
+            <a:ext cx="1625600" cy="508000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>Verifica permisos de cámara y lectura/escritura de archivos</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="Rectángulo redondeado 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3852862" y="722313"/>
+            <a:ext cx="1536701" cy="452432"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>Si es </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900" b="1"/>
+              <a:t>seleccionar foto</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>(crea intent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900" baseline="0"/>
+              <a:t> seleccionar foto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="Rectángulo redondeado 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3906838" y="1390650"/>
+            <a:ext cx="1404655" cy="428624"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>obtiene imagen de selector</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>(almacena ruta imagen)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="Rectángulo redondeado 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3915428" y="2357438"/>
+            <a:ext cx="1387474" cy="412750"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>escala imagen para</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900" baseline="0"/>
+              <a:t> visualizacion</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="Rectángulo redondeado 88"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3906838" y="2916238"/>
+            <a:ext cx="1404655" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>muestra imagen</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="Rectángulo redondeado 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5467350" y="1312862"/>
+            <a:ext cx="1255713" cy="576264"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>Si recibio seleccion ==&gt; </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>obtiene ruta imagen</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>devuelve ruta imagen</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="91" name="Conector recto de flecha 90"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="79" idx="3"/>
+            <a:endCxn id="82" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3690937" y="323851"/>
+            <a:ext cx="160339" cy="1587"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="92" name="Conector recto de flecha 91"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="80" idx="3"/>
+            <a:endCxn id="83" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3683000" y="944563"/>
+            <a:ext cx="169862" cy="3966"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="93" name="Conector recto de flecha 92"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="98" idx="3"/>
+            <a:endCxn id="86" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3765551" y="1603376"/>
+            <a:ext cx="141287" cy="1586"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="94" name="Conector recto de flecha 93"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="123" idx="2"/>
+            <a:endCxn id="88" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4609165" y="2206625"/>
+            <a:ext cx="0" cy="150813"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="95" name="Conector recto de flecha 94"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="88" idx="2"/>
+            <a:endCxn id="89" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4609165" y="2770188"/>
+            <a:ext cx="1" cy="146050"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="96" name="Conector recto de flecha 95"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="86" idx="3"/>
+            <a:endCxn id="90" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5311493" y="1600994"/>
+            <a:ext cx="155857" cy="3968"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="Rectángulo redondeado 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2566988" y="1389063"/>
+            <a:ext cx="1198563" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>Fragmento</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1000"/>
+              <a:t>(On Activity Result)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="99" name="Conector recto de flecha 98"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="83" idx="2"/>
+            <a:endCxn id="98" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3166270" y="1174745"/>
+            <a:ext cx="1454943" cy="214318"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="Rectángulo redondeado 122"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3915428" y="1984375"/>
+            <a:ext cx="1387474" cy="222250"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="900"/>
+              <a:t>convierte ruta a imagen</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="124" name="Conector recto de flecha 123"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="86" idx="2"/>
+            <a:endCxn id="123" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4609165" y="1819274"/>
+            <a:ext cx="1" cy="165101"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>111124</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectángulo redondeado 7"/>
+        <xdr:cNvPr id="2" name="Rectángulo redondeado 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="650875" y="508001"/>
-          <a:ext cx="1746249" cy="333375"/>
+          <a:off x="361950" y="209550"/>
+          <a:ext cx="2028825" cy="4838700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>SELECCIONAR IMAGEN</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>150814</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>98426</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectángulo redondeado 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3198814" y="555625"/>
-          <a:ext cx="1471612" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8842"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Botón Config</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On click)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>353218</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182562</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>242094</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>39686</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo redondeado 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4925218" y="3421062"/>
-          <a:ext cx="1412876" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Lee valor y equivalencia</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>353218</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>242094</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>31748</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectángulo redondeado 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4925218" y="555624"/>
-          <a:ext cx="1412876" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Abrir actividad Configurar</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(intent)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>98426</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>353218</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector recto de flecha 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="14" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4670426" y="769936"/>
-          <a:ext cx="254792" cy="2"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>353218</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>242094</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>87311</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectángulo redondeado 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4925218" y="4040187"/>
-          <a:ext cx="1412876" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Realiza Conversion</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>353218</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>242094</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>158748</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectángulo redondeado 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4925218" y="4683124"/>
-          <a:ext cx="1412876" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Actualiza resultado</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>39686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Conector recto de flecha 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="21" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631656" y="3849686"/>
-          <a:ext cx="0" cy="190501"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>87311</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Conector recto de flecha 25"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="2"/>
-          <a:endCxn id="22" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631656" y="4468811"/>
-          <a:ext cx="0" cy="214313"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>706438</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="793751" y="968375"/>
-          <a:ext cx="1436687" cy="1603375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>IMAGEN SELECCIONADA</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="603250" y="3405187"/>
-          <a:ext cx="254000" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5582,469 +6024,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Y 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="555625" y="3381375"/>
-          <a:ext cx="325438" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartSummingJunction">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectángulo 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="936625" y="3421063"/>
-          <a:ext cx="1317625" cy="436561"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>SUBIR A SERVIDOR DE ARCHIVOS</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>55562</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55564</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectángulo redondeado 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619124" y="4198938"/>
-          <a:ext cx="1722438" cy="238126"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>MENU</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectángulo redondeado 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="492125" y="4556125"/>
-          <a:ext cx="444500" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>HOME</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>706438</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectángulo redondeado 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="968375" y="4572000"/>
-          <a:ext cx="500063" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>TOMAR FOTO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>738187</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>420687</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectángulo redondeado 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1500187" y="4579937"/>
-          <a:ext cx="444500" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>LOGIN</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>452436</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectángulo redondeado 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1976436" y="4587874"/>
-          <a:ext cx="571502" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>ULTIMAS FOTOS</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo redondeado 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="209550" y="190501"/>
-          <a:ext cx="2028825" cy="4838700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6053,7 +6041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="5219700"/>
+          <a:off x="476250" y="5238749"/>
           <a:ext cx="1685925" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6091,842 +6079,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>Actividad Configuracion</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2547939" y="252413"/>
-          <a:ext cx="1135061" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Activity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On Create)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2547939" y="952500"/>
-          <a:ext cx="1135061" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Activity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On Start)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67470</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67470</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector recto de flecha 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3115470" y="681038"/>
-          <a:ext cx="0" cy="271462"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>681039</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo redondeado 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6015039" y="1657351"/>
-          <a:ext cx="1557337" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Borra elementos</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>715964</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7934</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>690563</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>55558</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectángulo redondeado 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6049964" y="960434"/>
-          <a:ext cx="1498599" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Lee tipos de cambio (todos)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(base de datos)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>473076</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectángulo redondeado 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4129089" y="958851"/>
-          <a:ext cx="1677987" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Actualiza</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900" baseline="0"/>
-            <a:t> lista</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo redondeado 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6015038" y="2273301"/>
-          <a:ext cx="1557337" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Adiciona tipos de cambio</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector recto de flecha 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3683000" y="1166813"/>
-          <a:ext cx="446089" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>697708</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>55558</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>703264</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Conector recto de flecha 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6793708" y="1389058"/>
-          <a:ext cx="5556" cy="268293"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>473076</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>715964</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31746</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Conector recto de flecha 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5807076" y="1173163"/>
-          <a:ext cx="242888" cy="1583"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>697707</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>697708</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Conector recto de flecha 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6793707" y="2085975"/>
-          <a:ext cx="1" cy="187326"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Heptágono 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3071812" y="1754188"/>
-          <a:ext cx="381000" cy="365125"/>
-        </a:xfrm>
-        <a:prstGeom prst="heptagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>A</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>367081</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>112006</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Conector recto de flecha 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="0"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3415081" y="1173163"/>
-          <a:ext cx="714008" cy="653343"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo redondeado 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="361950" y="209550"/>
-          <a:ext cx="2028825" cy="4838700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="5238749"/>
-          <a:ext cx="1685925" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>Actividad principal</a:t>
+            <a:t>Actividad Analizar</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7048,16 +6201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>349251</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39689</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246064</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7066,7 +6219,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904876" y="706438"/>
+          <a:off x="3849689" y="4206876"/>
           <a:ext cx="968375" cy="555625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7386,26 +6539,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:colOff>484188</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>690563</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="Grupo 26"/>
+        <xdr:cNvPr id="10" name="Grupo 9"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="523875" y="1682751"/>
+          <a:off x="484188" y="2159001"/>
           <a:ext cx="1730375" cy="2333624"/>
-          <a:chOff x="603250" y="1658939"/>
+          <a:chOff x="523875" y="1682751"/>
           <a:chExt cx="1730375" cy="2333624"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -7416,7 +6569,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="603250" y="1658939"/>
+            <a:off x="523875" y="1682751"/>
             <a:ext cx="1730375" cy="2333624"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -7448,45 +6601,8 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="es-PE" sz="1100"/>
-              <a:t>LISTA</a:t>
+              <a:t>LISTA DE CARACTERISTICAS</a:t>
             </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectángulo 15"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="722313" y="2214563"/>
-            <a:ext cx="277812" cy="301625"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7497,8 +6613,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1087437" y="2238375"/>
-            <a:ext cx="730250" cy="254000"/>
+            <a:off x="603250" y="2262187"/>
+            <a:ext cx="1135062" cy="254000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7538,50 +6654,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Rectángulo 17"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="722313" y="2555876"/>
-            <a:ext cx="277812" cy="301625"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="19" name="CuadroTexto 18"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1087437" y="2579688"/>
-            <a:ext cx="730250" cy="254000"/>
+            <a:off x="603250" y="2603500"/>
+            <a:ext cx="1135062" cy="254000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7621,50 +6700,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Rectángulo 19"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="722313" y="2928938"/>
-            <a:ext cx="277812" cy="301625"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="21" name="CuadroTexto 20"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1087437" y="2952750"/>
-            <a:ext cx="730250" cy="254000"/>
+            <a:off x="603250" y="2976562"/>
+            <a:ext cx="1135062" cy="254000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7709,7 +6751,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1984375" y="2182813"/>
+            <a:off x="1905000" y="2206625"/>
             <a:ext cx="277812" cy="1476374"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -7746,7 +6788,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1988344" y="1936750"/>
+            <a:off x="1908969" y="1960562"/>
             <a:ext cx="269875" cy="214313"/>
           </a:xfrm>
           <a:prstGeom prst="triangle">
@@ -7783,47 +6825,10 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="1988344" y="3690937"/>
+            <a:off x="1908969" y="3714749"/>
             <a:ext cx="269875" cy="214313"/>
           </a:xfrm>
           <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Rectángulo 24"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="738188" y="3294063"/>
-            <a:ext cx="277812" cy="301625"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -7857,8 +6862,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1103312" y="3317875"/>
-            <a:ext cx="730250" cy="254000"/>
+            <a:off x="619125" y="3341687"/>
+            <a:ext cx="1135062" cy="254000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7901,114 +6906,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Multiplicar 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="698500" y="2293937"/>
-          <a:ext cx="182562" cy="246063"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Multiplicar 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="698500" y="3000375"/>
-          <a:ext cx="182562" cy="246063"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>460375</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -8462,6 +7359,1011 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectángulo 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="642937" y="730250"/>
+          <a:ext cx="1436687" cy="1277938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>IMAGEN SELECCIONADA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>454593</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682628</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31753</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Grupo 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1187736" y="-415639"/>
+          <a:ext cx="285749" cy="1752035"/>
+          <a:chOff x="6679407" y="3861594"/>
+          <a:chExt cx="427172" cy="277812"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectángulo 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="6754087" y="3786914"/>
+            <a:ext cx="277812" cy="427172"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1100"/>
+              <a:t>BARRA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+              <a:t> DE PROGRESO</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Rectángulo 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="6872379" y="3925984"/>
+            <a:ext cx="41315" cy="379629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-PE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo redondeado 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="190501"/>
+          <a:ext cx="2028825" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="5219700"/>
+          <a:ext cx="1685925" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Actividad Configuracion</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2547939" y="252413"/>
+          <a:ext cx="1135061" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>Activity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>(On Create)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2547939" y="952500"/>
+          <a:ext cx="1135061" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>Activity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>(On Start)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67470</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67470</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3115470" y="681038"/>
+          <a:ext cx="0" cy="271462"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681039</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo redondeado 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6015039" y="1657351"/>
+          <a:ext cx="1557337" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>Borra elementos</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>715964</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>690563</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>55558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo redondeado 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6049964" y="960434"/>
+          <a:ext cx="1498599" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>Lee tipos de cambio (todos)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>(base de datos)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319089</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473076</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectángulo redondeado 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4129089" y="958851"/>
+          <a:ext cx="1677987" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>Actualiza</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900" baseline="0"/>
+            <a:t> lista</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectángulo redondeado 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6015038" y="2273301"/>
+          <a:ext cx="1557337" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>Adiciona tipos de cambio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319089</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="1166813"/>
+          <a:ext cx="446089" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>697708</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>55558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>703264</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6793708" y="1389058"/>
+          <a:ext cx="5556" cy="268293"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473076</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>715964</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto de flecha 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5807076" y="1173163"/>
+          <a:ext cx="242888" cy="1583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>697707</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>697708</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto de flecha 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6793707" y="2085975"/>
+          <a:ext cx="1" cy="187326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Heptágono 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3071812" y="1754188"/>
+          <a:ext cx="381000" cy="365125"/>
+        </a:xfrm>
+        <a:prstGeom prst="heptagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367081</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319089</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112006</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector recto de flecha 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="0"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3415081" y="1173163"/>
+          <a:ext cx="714008" cy="653343"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8763,7 +8665,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8777,8 +8679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8793,7 +8695,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8807,8 +8709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16035" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="5" r:id="rId1"/>
@@ -5977,8 +5977,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5988,7 +5988,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="361950" y="209550"/>
-          <a:ext cx="2028825" cy="4838700"/>
+          <a:ext cx="2028825" cy="3100388"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6024,15 +6024,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>515938</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>677863</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6041,7 +6041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="5238749"/>
+          <a:off x="515938" y="3460749"/>
           <a:ext cx="1685925" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6080,1281 +6080,6 @@
           <a:r>
             <a:rPr lang="es-PE" sz="1100"/>
             <a:t>Actividad Analizar</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>246063</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2532063" y="2190750"/>
-          <a:ext cx="1471612" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Check Box</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On change)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>456406</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector recto de flecha 4"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4003675" y="2397124"/>
-          <a:ext cx="262731" cy="7939"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>39689</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>246064</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectángulo redondeado 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3849689" y="4206876"/>
-          <a:ext cx="968375" cy="555625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>ACTUALIZAR TIPO CAMBIO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>246064</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>193676</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectángulo redondeado 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2532064" y="690563"/>
-          <a:ext cx="1471612" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Botón Actualizar</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On click)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>456406</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>345282</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134936</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo redondeado 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4266406" y="2182812"/>
-          <a:ext cx="1412876" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Identifica Tipo Cambio (Seleccionado/presionado)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>193676</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150811</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="34" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4003676" y="904876"/>
-          <a:ext cx="266699" cy="7935"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>448468</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>337344</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectángulo redondeado 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4258468" y="2817813"/>
-          <a:ext cx="1412876" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Actualiza Registro </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(Base Datos)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400844</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto de flecha 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4964906" y="2611436"/>
-          <a:ext cx="7938" cy="206377"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>690563</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Grupo 9"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="484188" y="2159001"/>
-          <a:ext cx="1730375" cy="2333624"/>
-          <a:chOff x="523875" y="1682751"/>
-          <a:chExt cx="1730375" cy="2333624"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectángulo redondeado 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="523875" y="1682751"/>
-            <a:ext cx="1730375" cy="2333624"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8712"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="es-PE" sz="1100"/>
-              <a:t>LISTA DE CARACTERISTICAS</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="CuadroTexto 16"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="603250" y="2262187"/>
-            <a:ext cx="1135062" cy="254000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="CuadroTexto 18"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="603250" y="2603500"/>
-            <a:ext cx="1135062" cy="254000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="CuadroTexto 20"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="603250" y="2976562"/>
-            <a:ext cx="1135062" cy="254000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Rectángulo 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1905000" y="2206625"/>
-            <a:ext cx="277812" cy="1476374"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Triángulo isósceles 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1908969" y="1960562"/>
-            <a:ext cx="269875" cy="214313"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Triángulo isósceles 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="1908969" y="3714749"/>
-            <a:ext cx="269875" cy="214313"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="CuadroTexto 25"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="619125" y="3341687"/>
-            <a:ext cx="1135062" cy="254000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="es-PE" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>365124</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>174623</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectángulo redondeado 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4270375" y="698499"/>
-          <a:ext cx="1428749" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Lee tipo de cambio</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(web service)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601663</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rectángulo redondeado 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5935663" y="1271587"/>
-          <a:ext cx="1677987" cy="428624"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Actualiza tipos de cambio (todos)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(base de datos)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>678657</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>678657</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Conector recto de flecha 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="2"/>
-          <a:endCxn id="35" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6774657" y="1127124"/>
-          <a:ext cx="0" cy="144463"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>515938</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectángulo redondeado 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6175375" y="698499"/>
-          <a:ext cx="1198563" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Librería WebService</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On Response)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>365124</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150812</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Conector recto de flecha 37"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="3"/>
-          <a:endCxn id="37" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5699124" y="912811"/>
-          <a:ext cx="476251" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Heptágono 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8064500" y="1246188"/>
-          <a:ext cx="381000" cy="365125"/>
-        </a:xfrm>
-        <a:prstGeom prst="heptagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>A</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444499</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Conector recto de flecha 51"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="3"/>
-          <a:endCxn id="51" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7613650" y="1481002"/>
-          <a:ext cx="450849" cy="4897"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>103187</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>436562</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CuadroTexto 55"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7723187" y="1682750"/>
-          <a:ext cx="1095375" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(ACTUALIZA LISTA)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7531,6 +6256,63 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CuadroTexto 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="2185987"/>
+          <a:ext cx="1582738" cy="877888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>CARACTERISTICAS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7546,8 +6328,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7557,7 +6339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="190501"/>
-          <a:ext cx="2028825" cy="4838700"/>
+          <a:ext cx="2028825" cy="5508624"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7591,15 +6373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>284163</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>446088</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7608,7 +6390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="5219700"/>
+          <a:off x="284163" y="5902325"/>
           <a:ext cx="1685925" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7709,7 +6491,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On Create)</a:t>
+            <a:t>(On Create View)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7719,15 +6501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>261939</xdr:colOff>
+      <xdr:colOff>301626</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:colOff>674687</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7736,7 +6518,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2547939" y="952500"/>
+          <a:off x="2587626" y="1000125"/>
           <a:ext cx="1135061" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7765,14 +6547,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>Activity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1000"/>
-            <a:t>(On Start)</a:t>
+            <a:t>Almacena Imagen</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7782,28 +6557,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>67470</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67470</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295278</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Conector recto de flecha 5"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3115470" y="681038"/>
-          <a:ext cx="0" cy="271462"/>
+          <a:off x="3683000" y="466726"/>
+          <a:ext cx="422278" cy="17461"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7832,15 +6607,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>681039</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>577851</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>611188</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7849,8 +6624,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6015039" y="1657351"/>
-          <a:ext cx="1557337" cy="428624"/>
+          <a:off x="5911851" y="871538"/>
+          <a:ext cx="1557337" cy="239712"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7877,7 +6652,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Borra elementos</a:t>
+            <a:t>progress listener</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7886,16 +6661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327026</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>715964</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7934</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>690563</xdr:colOff>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>55558</xdr:rowOff>
+      <xdr:rowOff>111121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7904,7 +6679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6049964" y="960434"/>
+          <a:off x="4137026" y="1015997"/>
           <a:ext cx="1498599" cy="428624"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7932,15 +6707,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Lee tipos de cambio (todos)</a:t>
+            <a:t>almacena</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-PE" sz="900"/>
-            <a:t>(base de datos)</a:t>
+            <a:rPr lang="es-PE" sz="900" baseline="0"/>
+            <a:t> en firebase</a:t>
           </a:r>
+          <a:endParaRPr lang="es-PE" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7948,26 +6721,176 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>626271</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3218656" y="2349499"/>
+          <a:ext cx="3503615" cy="468314"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577851</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto de flecha 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5635625" y="991394"/>
+          <a:ext cx="276226" cy="238915"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601665</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94456</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto de flecha 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635625" y="1230309"/>
+          <a:ext cx="300040" cy="388147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
+      <xdr:colOff>295278</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>150810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>473076</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>269877</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectángulo redondeado 11"/>
+        <xdr:cNvPr id="22" name="Rectángulo redondeado 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4129089" y="958851"/>
-          <a:ext cx="1677987" cy="428624"/>
+          <a:off x="4105278" y="150810"/>
+          <a:ext cx="1498599" cy="666753"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7994,13 +6917,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Actualiza</a:t>
+            <a:t>recibe parametros y crea variables de referencia (interfaz usuario, firebase)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="900" baseline="0"/>
-            <a:t> lista</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8008,26 +6926,356 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>722312</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo redondeado 12"/>
+        <xdr:cNvPr id="29" name="Rectángulo redondeado 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6015038" y="2273301"/>
-          <a:ext cx="1557337" cy="428624"/>
+          <a:off x="2635251" y="2008188"/>
+          <a:ext cx="1135061" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>Analiza Imagen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>738186</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectángulo redondeado 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651125" y="2817813"/>
+          <a:ext cx="1135061" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>Rostros Imagen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698499</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectángulo redondeado 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2611438" y="3857625"/>
+          <a:ext cx="1135061" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>Consolida Informacion</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325438</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698499</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectángulo redondeado 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2611438" y="4579938"/>
+          <a:ext cx="1135061" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>Almacena Informacion</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325438</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698499</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectángulo redondeado 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2611438" y="5270500"/>
+          <a:ext cx="1135061" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1000"/>
+            <a:t>Mostrar Resultado</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>282578</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto de flecha 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3155157" y="817563"/>
+          <a:ext cx="1699421" cy="182562"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601665</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635002</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectángulo redondeado 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935665" y="1498600"/>
+          <a:ext cx="1557337" cy="239712"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8054,7 +7302,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-PE" sz="900"/>
-            <a:t>Adiciona tipos de cambio</a:t>
+            <a:t>sucess listener</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8063,228 +7311,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585789</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector recto de flecha 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3683000" y="1166813"/>
-          <a:ext cx="446089" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>697708</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>55558</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>703264</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Conector recto de flecha 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6793708" y="1389058"/>
-          <a:ext cx="5556" cy="268293"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>473076</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>715964</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31746</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Conector recto de flecha 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5807076" y="1173163"/>
-          <a:ext cx="242888" cy="1583"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>697707</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>697708</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Conector recto de flecha 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6793707" y="2085975"/>
-          <a:ext cx="1" cy="187326"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>87312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Heptágono 34"/>
+        <xdr:cNvPr id="44" name="Rectángulo redondeado 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3071812" y="1754188"/>
-          <a:ext cx="381000" cy="365125"/>
-        </a:xfrm>
-        <a:prstGeom prst="heptagon">
+          <a:off x="5919789" y="1181100"/>
+          <a:ext cx="1557337" cy="239712"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -8303,13 +7351,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
-            <a:t>A</a:t>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>failure listener</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8319,28 +7367,853 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>367081</xdr:colOff>
+      <xdr:colOff>674687</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>112006</xdr:rowOff>
+      <xdr:colOff>327026</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87309</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Conector recto de flecha 35"/>
+        <xdr:cNvPr id="45" name="Conector recto de flecha 44"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="0"/>
-          <a:endCxn id="12" idx="1"/>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3722687" y="1214438"/>
+          <a:ext cx="414339" cy="15871"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585789</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157956</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Conector recto de flecha 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635625" y="1230309"/>
+          <a:ext cx="284164" cy="70647"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618334</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Conector recto de flecha 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3202782" y="1738312"/>
+          <a:ext cx="3511552" cy="269876"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255588</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>230187</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectángulo redondeado 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4065588" y="2016122"/>
+          <a:ext cx="1498599" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>async task para azure analisis de imagen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642939</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectángulo redondeado 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943602" y="2109787"/>
+          <a:ext cx="1557337" cy="239712"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>get response code</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>722312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255588</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Conector recto de flecha 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3770312" y="2222501"/>
+          <a:ext cx="295276" cy="7933"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>230187</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609602</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Conector recto de flecha 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3415081" y="1173163"/>
-          <a:ext cx="714008" cy="653343"/>
+          <a:off x="5564187" y="2229643"/>
+          <a:ext cx="379415" cy="791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>332583</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Conector recto de flecha 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3178969" y="3167061"/>
+          <a:ext cx="4773614" cy="690564"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Rectángulo redondeado 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5454650" y="2833684"/>
+          <a:ext cx="1498599" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>async task para azure faces (caras o rostros)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315914</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349251</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rectángulo redondeado 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7173914" y="2927349"/>
+          <a:ext cx="1557337" cy="239712"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>get response code</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>189705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315914</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190496</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Conector recto de flecha 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="3"/>
+          <a:endCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6953249" y="3047205"/>
+          <a:ext cx="220665" cy="791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectángulo redondeado 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4176714" y="2825747"/>
+          <a:ext cx="1030287" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="900"/>
+            <a:t>numero de caras detectadas &gt;0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190496</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Conector recto de flecha 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="3"/>
+          <a:endCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5207001" y="3040059"/>
+          <a:ext cx="247649" cy="7937"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119858</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Conector recto de flecha 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3178969" y="3254371"/>
+          <a:ext cx="1512889" cy="603254"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>738186</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182559</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Conector recto de flecha 100"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="91" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3786186" y="3032126"/>
+          <a:ext cx="390528" cy="7933"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Conector recto de flecha 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178969" y="4286250"/>
+          <a:ext cx="0" cy="293688"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Conector recto de flecha 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178969" y="5008563"/>
+          <a:ext cx="0" cy="261937"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8664,8 +8537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8695,7 +8568,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8709,8 +8582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Botones Activ Principal" sheetId="2" r:id="rId3"/>
     <sheet name="Diagrama Flujo Activ Principal" sheetId="1" r:id="rId4"/>
     <sheet name="Botones Activ Analizar" sheetId="4" r:id="rId5"/>
-    <sheet name="Diagrama Flujo Activ Analizar" sheetId="3" r:id="rId6"/>
+    <sheet name="Botones Activ Ultimas Fotos" sheetId="7" r:id="rId6"/>
+    <sheet name="Diagrama Flujo Activ Analizar" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -8537,7 +8538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -8567,7 +8568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -8582,6 +8583,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>

--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16035" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="5" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Botones Activ Principal" sheetId="2" r:id="rId3"/>
     <sheet name="Diagrama Flujo Activ Principal" sheetId="1" r:id="rId4"/>
     <sheet name="Botones Activ Analizar" sheetId="4" r:id="rId5"/>
-    <sheet name="Botones Activ Ultimas Fotos" sheetId="7" r:id="rId6"/>
-    <sheet name="Diagrama Flujo Activ Analizar" sheetId="3" r:id="rId7"/>
+    <sheet name="Diagrama Flujo Activ Analizar" sheetId="3" r:id="rId6"/>
+    <sheet name="Botones Activ Ultimas Fotos" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -8553,7 +8553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -8568,8 +8568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8583,20 +8583,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
@@ -8606,4 +8592,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>